--- a/MemoryGame/Statistics/Highscorestats/HighscoresMemory.xlsx
+++ b/MemoryGame/Statistics/Highscorestats/HighscoresMemory.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D162B4-5082-4F25-A385-0B5D421F4228}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58144D8C-75E7-41BB-A6B9-65B57271D21D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2Player1" sheetId="1" r:id="rId1"/>
@@ -16,66 +16,130 @@
     <sheet name="1Player2" sheetId="6" r:id="rId6"/>
     <sheet name="1Player3" sheetId="7" r:id="rId7"/>
     <sheet name="1Player4" sheetId="8" r:id="rId8"/>
-    <sheet name="Blad9" sheetId="9" r:id="rId9"/>
+    <sheet name="Stats(9)" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="twoplayerdifone">'2Player1'!#REF!</definedName>
+  </definedNames>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+  <si>
+    <t>Naam</t>
+  </si>
+  <si>
+    <t>Turns</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Singleplayer 4x4</t>
+  </si>
   <si>
     <t>Multiplayer 4x4</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Points</t>
+    <t>Multiplayer 4x5</t>
+  </si>
+  <si>
+    <t>Multiplayer 4x6</t>
+  </si>
+  <si>
+    <t>Multiplayer 5x6</t>
+  </si>
+  <si>
+    <t>Singleplayer 4x5</t>
+  </si>
+  <si>
+    <t>Singleplayer 4x6</t>
+  </si>
+  <si>
+    <t>Singleplayer 5x6</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Games Started:</t>
+  </si>
+  <si>
+    <t>Games Finished:</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Saved games</t>
+  </si>
+  <si>
+    <t>Theme Choice:</t>
+  </si>
+  <si>
+    <t>Games:</t>
+  </si>
+  <si>
+    <t>Disney:</t>
+  </si>
+  <si>
+    <t>Gebouwen:</t>
+  </si>
+  <si>
+    <t>Logo's:</t>
+  </si>
+  <si>
+    <t>Multiplayer</t>
+  </si>
+  <si>
+    <t>Singleplayer</t>
   </si>
   <si>
     <t>Tjeerd</t>
   </si>
   <si>
-    <t>Multiplayer 4x5</t>
-  </si>
-  <si>
-    <t>Multiplayer 4x6</t>
-  </si>
-  <si>
-    <t>Multiplayer 5x6</t>
-  </si>
-  <si>
-    <t>Singleplayer 4x4</t>
-  </si>
-  <si>
-    <t>Naam</t>
-  </si>
-  <si>
-    <t>Turns</t>
-  </si>
-  <si>
-    <t>Singleplayer 4x5</t>
-  </si>
-  <si>
-    <t>Singleplayer 4x6</t>
-  </si>
-  <si>
-    <t>Singleplayer 5x6</t>
+    <t>Tjitske</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -99,16 +163,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Procent" xfId="1" builtinId="5"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -387,31 +459,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A3:B4">
+    <sortCondition descending="1" ref="B3"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62748117-125E-45A2-BABA-3B69675596A6}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -419,11 +542,77 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AE89AC-EFDF-4379-B3A3-C759D881895F}">
-  <dimension ref="A1:B3"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61860841-8626-49C3-B912-359C2ED702F7}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636D0221-87DE-4030-8A14-0DEF8F2E3FB8}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E50D87C-B4A7-4198-A333-B0DA0FA253BE}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -433,136 +622,87 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A3:B4">
+    <sortCondition descending="1" ref="B3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1549DD-3B1A-4217-AC2A-140FAF26634E}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377C11B0-3F9A-434E-86DD-743D28C01170}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF0E762-7E94-4420-AD6D-1D5AEC768620}">
-  <dimension ref="A1:B3"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB57AAB-5372-4687-B8F4-EC1BC71CB338}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
         <v>1</v>
       </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0BCFE0-1BB9-4726-91DC-8DAB574A6FC4}">
-  <dimension ref="A1:B3"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32E7B82-9D97-49E6-9C79-3A427E717A9C}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="I16" sqref="I16:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,31 +714,35 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
         <v>1</v>
       </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2B3782-EF23-4AE7-B8ED-D6B283B78BAB}">
-  <dimension ref="A1:B3"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA27527-7046-41F7-BC3C-78150D1B4B18}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="I19" sqref="I19:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,69 +754,150 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
         <v>1</v>
       </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D53C6BF-5DB6-404E-A0E9-BEEC198EF5D9}">
-  <dimension ref="A1:B3"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75E8CAA-88AF-4BE7-B13F-1EFE7494ACAE}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FC5D2F-DDDF-408A-8F36-58B179A63E49}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MemoryGame/Statistics/Highscorestats/HighscoresMemory.xlsx
+++ b/MemoryGame/Statistics/Highscorestats/HighscoresMemory.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58144D8C-75E7-41BB-A6B9-65B57271D21D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9E21CC5E-9325-44D3-A2FB-EDB4C635F1BA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2Player1" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,10 @@
   <definedNames>
     <definedName name="twoplayerdifone">'2Player1'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -639,7 +634,9 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>400</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -650,7 +647,7 @@
       <c r="B6" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A3:B4">
+  <sortState ref="A3:B5">
     <sortCondition descending="1" ref="B3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MemoryGame/Statistics/Highscorestats/HighscoresMemory.xlsx
+++ b/MemoryGame/Statistics/Highscorestats/HighscoresMemory.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9E21CC5E-9325-44D3-A2FB-EDB4C635F1BA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F748B9-3F83-4C51-BD59-2CFD77EDC4D6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Naam</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>Tjeerd</t>
-  </si>
-  <si>
-    <t>Tjitske</t>
   </si>
 </sst>
 </file>
@@ -454,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11:C12"/>
@@ -489,15 +486,22 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
       <c r="B4">
-        <v>50</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:B4">
+  <sortState ref="A3:B6">
     <sortCondition descending="1" ref="B3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MemoryGame/Statistics/Highscorestats/HighscoresMemory.xlsx
+++ b/MemoryGame/Statistics/Highscorestats/HighscoresMemory.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F748B9-3F83-4C51-BD59-2CFD77EDC4D6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2577322-BF19-4BB9-812C-D3E054271447}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2Player1" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,22 @@
   <definedNames>
     <definedName name="twoplayerdifone">'2Player1'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>Naam</t>
   </si>
@@ -108,13 +113,31 @@
     <t>Singleplayer</t>
   </si>
   <si>
-    <t>Tjeerd</t>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Ttest2</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,7 +182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -170,6 +193,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Procent" xfId="1" builtinId="5"/>
@@ -451,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,44 +490,96 @@
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1.8518518518518518E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
       <c r="B4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.8518518518518518E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
       <c r="B5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.8518518518518518E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
       <c r="B6">
+        <v>150</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.8518518518518518E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>150</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.7361111111111112E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
         <v>100</v>
       </c>
+      <c r="C8" s="4">
+        <v>1.7361111111111112E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="5"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A3:B6">
+  <sortState ref="A3:B8">
     <sortCondition descending="1" ref="B3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -511,10 +589,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62748117-125E-45A2-BABA-3B69675596A6}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E21"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,17 +601,20 @@
     <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -543,10 +624,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61860841-8626-49C3-B912-359C2ED702F7}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,17 +636,20 @@
     <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -575,10 +659,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636D0221-87DE-4030-8A14-0DEF8F2E3FB8}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,17 +671,20 @@
     <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -607,46 +694,39 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E50D87C-B4A7-4198-A333-B0DA0FA253BE}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="B3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
@@ -660,36 +740,39 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB57AAB-5372-4687-B8F4-EC1BC71CB338}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
@@ -700,36 +783,39 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32E7B82-9D97-49E6-9C79-3A427E717A9C}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:I17"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
@@ -740,40 +826,43 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA27527-7046-41F7-BC3C-78150D1B4B18}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19:I21"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
@@ -786,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75E8CAA-88AF-4BE7-B13F-1EFE7494ACAE}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MemoryGame/Statistics/Highscorestats/HighscoresMemory.xlsx
+++ b/MemoryGame/Statistics/Highscorestats/HighscoresMemory.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F748B9-3F83-4C51-BD59-2CFD77EDC4D6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{85B8EDDA-B734-40D8-B804-B68C468A566E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/MemoryGame/Statistics/Highscorestats/HighscoresMemory.xlsx
+++ b/MemoryGame/Statistics/Highscorestats/HighscoresMemory.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{85B8EDDA-B734-40D8-B804-B68C468A566E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2BE956AB-7E87-42EC-8401-F00A2955AF6B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,21 +478,21 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:B6">
+  <sortState ref="A3:B5">
     <sortCondition descending="1" ref="B3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MemoryGame/Statistics/Highscorestats/HighscoresMemory.xlsx
+++ b/MemoryGame/Statistics/Highscorestats/HighscoresMemory.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2577322-BF19-4BB9-812C-D3E054271447}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41126B5D-6850-44CB-AF1F-1EE4FCA000D7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>Naam</t>
   </si>
@@ -114,21 +114,6 @@
   </si>
   <si>
     <t>Duration</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Ttest2</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
 </sst>
 </file>
@@ -136,7 +121,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -195,7 +180,7 @@
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Procent" xfId="1" builtinId="5"/>
@@ -480,7 +465,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,79 +492,35 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3">
-        <v>300</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1.8518518518518518E-4</v>
-      </c>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4">
-        <v>250</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1.8518518518518518E-4</v>
-      </c>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>250</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1.8518518518518518E-4</v>
-      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6">
-        <v>150</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1.8518518518518518E-4</v>
-      </c>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <v>150</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1.7361111111111112E-4</v>
-      </c>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1.7361111111111112E-4</v>
-      </c>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="4"/>
       <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A3:B8">
+  <sortState ref="A3:B10">
     <sortCondition descending="1" ref="B3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MemoryGame/Statistics/Highscorestats/HighscoresMemory.xlsx
+++ b/MemoryGame/Statistics/Highscorestats/HighscoresMemory.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41126B5D-6850-44CB-AF1F-1EE4FCA000D7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C6DC00-B7C8-4FF1-B6FF-32996CB29AC7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -659,6 +659,14 @@
         <v>25</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2.4305555555555552E-4</v>
+      </c>
+    </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
@@ -672,7 +680,7 @@
       <c r="B6" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A3:B5">
+  <sortState ref="A3:C4">
     <sortCondition descending="1" ref="B3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MemoryGame/Statistics/Highscorestats/HighscoresMemory.xlsx
+++ b/MemoryGame/Statistics/Highscorestats/HighscoresMemory.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41126B5D-6850-44CB-AF1F-1EE4FCA000D7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F157D883-15E0-4EA0-A252-5FEBB555E9D7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>Naam</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>Duration</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Testasda</t>
+  </si>
+  <si>
+    <t>Tjeerd</t>
+  </si>
+  <si>
+    <t>1sdfsdfs</t>
   </si>
 </sst>
 </file>
@@ -492,22 +504,70 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="6"/>
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2.3148148148148147E-5</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="4"/>
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>250</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.1574074074074073E-5</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="4"/>
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.1574074074074073E-5</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="4"/>
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.1574074074074073E-5</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="4"/>
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>150</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1.1574074074074073E-5</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="4"/>
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2.3148148148148147E-5</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
@@ -520,7 +580,7 @@
       <c r="C19" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A3:B10">
+  <sortState ref="A3:C8">
     <sortCondition descending="1" ref="B3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MemoryGame/Statistics/Highscorestats/HighscoresMemory.xlsx
+++ b/MemoryGame/Statistics/Highscorestats/HighscoresMemory.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F157D883-15E0-4EA0-A252-5FEBB555E9D7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7C5E0F-1784-4B77-864A-D7DAE8CE0986}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>Naam</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>1sdfsdfs</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>dsfsdgfs</t>
+  </si>
+  <si>
+    <t>sdfgsdf</t>
+  </si>
+  <si>
+    <t>asdf</t>
   </si>
 </sst>
 </file>
@@ -516,71 +528,131 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B4">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="C4" s="4">
-        <v>1.1574074074074073E-5</v>
+        <v>2.3148148148148147E-5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C5" s="4">
-        <v>1.1574074074074073E-5</v>
+        <v>4.6296296296296294E-5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C6" s="4">
-        <v>1.1574074074074073E-5</v>
+        <v>1.1574074074074073E-4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7">
-        <v>150</v>
-      </c>
-      <c r="C7" s="6">
+        <v>250</v>
+      </c>
+      <c r="C7" s="4">
         <v>1.1574074074074073E-5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.1574074074074073E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>200</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.1574074074074073E-5</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>150</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1.1574074074074073E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1.1574074074074073E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="B8">
+      <c r="B12">
         <v>0</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C12" s="4">
         <v>2.3148148148148147E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="4"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="4"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2.3148148148148147E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4.6296296296296294E-5</v>
+      </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A3:C8">
+  <sortState ref="A3:C14">
     <sortCondition descending="1" ref="B3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MemoryGame/Statistics/Highscorestats/HighscoresMemory.xlsx
+++ b/MemoryGame/Statistics/Highscorestats/HighscoresMemory.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C6DC00-B7C8-4FF1-B6FF-32996CB29AC7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31879D48-3DFA-4A1E-A7CD-659FCD92B320}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,10 +492,20 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="6"/>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.8518518518518518E-4</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="4"/>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.8518518518518518E-4</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
@@ -520,7 +530,7 @@
       <c r="C19" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A3:B10">
+  <sortState ref="A3:C4">
     <sortCondition descending="1" ref="B3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -664,7 +674,7 @@
         <v>400</v>
       </c>
       <c r="C3" s="4">
-        <v>2.4305555555555552E-4</v>
+        <v>1.0416666666666667E-4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">

--- a/MemoryGame/Statistics/Highscorestats/HighscoresMemory.xlsx
+++ b/MemoryGame/Statistics/Highscorestats/HighscoresMemory.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31879D48-3DFA-4A1E-A7CD-659FCD92B320}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3946CACE-20F0-485D-8092-AD22D5768804}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2Player1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>Naam</t>
   </si>
@@ -50,30 +50,6 @@
     <t>Points</t>
   </si>
   <si>
-    <t>Singleplayer 4x4</t>
-  </si>
-  <si>
-    <t>Multiplayer 4x4</t>
-  </si>
-  <si>
-    <t>Multiplayer 4x5</t>
-  </si>
-  <si>
-    <t>Multiplayer 4x6</t>
-  </si>
-  <si>
-    <t>Multiplayer 5x6</t>
-  </si>
-  <si>
-    <t>Singleplayer 4x5</t>
-  </si>
-  <si>
-    <t>Singleplayer 4x6</t>
-  </si>
-  <si>
-    <t>Singleplayer 5x6</t>
-  </si>
-  <si>
     <t>Statistics</t>
   </si>
   <si>
@@ -114,6 +90,36 @@
   </si>
   <si>
     <t>Duration</t>
+  </si>
+  <si>
+    <t>Multiplayer Diff 1</t>
+  </si>
+  <si>
+    <t>Multiplayer Diff 2</t>
+  </si>
+  <si>
+    <t>Multiplayer Diff 3</t>
+  </si>
+  <si>
+    <t>Multiplayer Diff 4</t>
+  </si>
+  <si>
+    <t>Singleplayer Diff 1</t>
+  </si>
+  <si>
+    <t>Singleplayer Diff 2</t>
+  </si>
+  <si>
+    <t>Singleplayer Diff 3</t>
+  </si>
+  <si>
+    <t>Singleplayer Diff 4</t>
+  </si>
+  <si>
+    <t>Tjeerd</t>
+  </si>
+  <si>
+    <t>Tjeerd2</t>
   </si>
 </sst>
 </file>
@@ -464,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +483,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -488,24 +494,14 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>400</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1.8518518518518518E-4</v>
-      </c>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1.8518518518518518E-4</v>
-      </c>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
@@ -530,7 +526,7 @@
       <c r="C19" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A3:C4">
+  <sortState ref="A3:C6">
     <sortCondition descending="1" ref="B3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -540,10 +536,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62748117-125E-45A2-BABA-3B69675596A6}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +550,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -565,20 +561,29 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="4"/>
     </row>
   </sheetData>
+  <sortState ref="A3:C4">
+    <sortCondition descending="1" ref="B3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61860841-8626-49C3-B912-359C2ED702F7}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +594,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -600,10 +605,35 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>350</v>
+      </c>
+      <c r="C3" s="4">
+        <v>6.9444444444444444E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6.9444444444444444E-5</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:C4">
+    <sortCondition descending="1" ref="B3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -613,7 +643,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +654,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -635,7 +665,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -648,14 +678,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -666,16 +696,11 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>400</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1.0416666666666667E-4</v>
-      </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -702,14 +727,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -720,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -745,14 +770,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -763,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -787,15 +812,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA27527-7046-41F7-BC3C-78150D1B4B18}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -806,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -845,7 +870,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -871,46 +896,46 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
@@ -920,27 +945,27 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>

--- a/MemoryGame/Statistics/Highscorestats/HighscoresMemory.xlsx
+++ b/MemoryGame/Statistics/Highscorestats/HighscoresMemory.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3946CACE-20F0-485D-8092-AD22D5768804}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB177AF2-913B-48DE-9B86-1743CEC4B6A4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>Naam</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Tjeerd2</t>
+  </si>
+  <si>
+    <t>Maurice</t>
   </si>
 </sst>
 </file>
@@ -791,6 +794,17 @@
         <v>17</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>37</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3.8194444444444446E-4</v>
+      </c>
+    </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
@@ -804,6 +818,9 @@
       <c r="B6" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A3:C4">
+    <sortCondition descending="1" ref="B3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -834,6 +851,17 @@
         <v>17</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.9675925925925926E-4</v>
+      </c>
+    </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
@@ -851,6 +879,9 @@
       <c r="B7" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A3:C4">
+    <sortCondition descending="1" ref="B3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
